--- a/storage/import/sales/sales-data-01.xlsx
+++ b/storage/import/sales/sales-data-01.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Jeremiah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventory_management_system\storage\import\sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97317DA3-0623-4342-806D-E338C9B6584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5238EA-D93C-43E7-92DE-59D49C5D977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1060" windowWidth="16590" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12038" uniqueCount="3450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12045" uniqueCount="3452">
   <si>
     <t>id</t>
   </si>
@@ -10371,6 +10370,12 @@
   </si>
   <si>
     <t>1110.55</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>BEVERAGES</t>
   </si>
 </sst>
 </file>
@@ -10764,18 +10769,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A983" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L543" sqref="L543"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="47.296875" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.3984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10818,8 +10823,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -10862,8 +10870,11 @@
       <c r="N2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10906,8 +10917,11 @@
       <c r="N3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -10950,8 +10964,11 @@
       <c r="N4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -10994,8 +11011,11 @@
       <c r="N5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -11038,8 +11058,11 @@
       <c r="N6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -11082,8 +11105,11 @@
       <c r="N7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -11127,7 +11153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -11171,7 +11197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -11215,7 +11241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -11259,7 +11285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -11303,7 +11329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -11347,7 +11373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -11391,7 +11417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -11435,7 +11461,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>104</v>
       </c>
